--- a/spec_Yolo.xlsx
+++ b/spec_Yolo.xlsx
@@ -36,49 +36,49 @@
     <t>time</t>
   </si>
   <si>
-    <t>2.674</t>
-  </si>
-  <si>
-    <t>0.9963</t>
-  </si>
-  <si>
-    <t>3.303</t>
-  </si>
-  <si>
-    <t>0.9959</t>
-  </si>
-  <si>
-    <t>226m11.3s</t>
-  </si>
-  <si>
-    <t>5.6813</t>
-  </si>
-  <si>
-    <t>0.9996</t>
-  </si>
-  <si>
-    <t>9.1292</t>
-  </si>
-  <si>
-    <t>0.9988</t>
-  </si>
-  <si>
-    <t>126m46.5s</t>
-  </si>
-  <si>
-    <t>3.3256</t>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.9951</t>
+  </si>
+  <si>
+    <t>0.1319</t>
+  </si>
+  <si>
+    <t>0.9947</t>
+  </si>
+  <si>
+    <t>280m58s</t>
+  </si>
+  <si>
+    <t>3.5487</t>
+  </si>
+  <si>
+    <t>0.9997</t>
+  </si>
+  <si>
+    <t>4.7614</t>
+  </si>
+  <si>
+    <t>0.9985</t>
+  </si>
+  <si>
+    <t>197m58</t>
+  </si>
+  <si>
+    <t>2.8497</t>
   </si>
   <si>
     <t>0.9993</t>
   </si>
   <si>
-    <t>4.7502</t>
+    <t>3.589</t>
   </si>
   <si>
     <t>0.9984</t>
   </si>
   <si>
-    <t>199m54s</t>
+    <t>201m23s</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,15 +111,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,22 +372,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -431,30 +433,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -495,22 +494,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
